--- a/Data/Processing/2024-02-02/GESHIP.xlsx
+++ b/Data/Processing/2024-02-02/GESHIP.xlsx
@@ -3916,7 +3916,7 @@
         <v>702.5700000000001</v>
       </c>
       <c r="C68">
-        <v>718.41</v>
+        <v>718.42</v>
       </c>
       <c r="D68">
         <v>683.1900000000001</v>
@@ -3937,7 +3937,7 @@
         <v>-2.35</v>
       </c>
       <c r="J68">
-        <v>2.2</v>
+        <v>2.21</v>
       </c>
       <c r="K68">
         <v>-2.84</v>
@@ -6566,10 +6566,10 @@
         <v>757.1900000000001</v>
       </c>
       <c r="C121">
-        <v>777.72</v>
+        <v>777.71</v>
       </c>
       <c r="D121">
-        <v>751.4</v>
+        <v>751.39</v>
       </c>
       <c r="E121">
         <v>775.75</v>
